--- a/Excel_sample/LeaveExport.xlsx
+++ b/Excel_sample/LeaveExport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20010" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -88,18 +88,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>產假／流產假</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>公傷病假</t>
     </r>
   </si>
@@ -228,90 +216,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>特休假工時比例</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>特休假代金</t>
-    </r>
+    <t>RMK</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>P1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工時</t>
-    </r>
+    <t>請假期間：</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>病假薪資</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>婚假薪資</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>喪假薪資</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>產假</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流產假</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -349,11 +267,52 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RMK</t>
+    <t>產假薪資</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流產假薪資</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵役薪資</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特休假工時比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特休假代金</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>請假期間：</t>
+    <r>
+      <t>P1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工時</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假薪資</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚假薪資</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喪假薪資</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +327,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,6 +401,21 @@
       <color rgb="FF00B050"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -517,7 +491,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,9 +526,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,6 +537,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -908,20 +894,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="12.375" customWidth="1"/>
+    <col min="20" max="20" width="11.375" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="27" max="27" width="12.75" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -936,16 +934,20 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="4"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="1"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="5"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -961,65 +963,77 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_sample/LeaveExport.xlsx
+++ b/Excel_sample/LeaveExport.xlsx
@@ -11,12 +11,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -283,27 +283,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>特休假代金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>P1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工時</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>病假薪資</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -314,6 +293,18 @@
   <si>
     <t>喪假薪資</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特休假薪資</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>前四週正常工時</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>時薪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,28 +520,28 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -894,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -908,18 +899,20 @@
     <col min="17" max="17" width="13.25" customWidth="1"/>
     <col min="19" max="19" width="12.375" customWidth="1"/>
     <col min="20" max="20" width="11.375" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="26" max="26" width="11.75" customWidth="1"/>
-    <col min="27" max="27" width="12.75" customWidth="1"/>
-    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="21" max="21" width="8.125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="11.75" customWidth="1"/>
+    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="29" max="29" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -937,17 +930,18 @@
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="1"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-      <c r="AC1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="5"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -963,10 +957,10 @@
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1002,37 +996,40 @@
       <c r="R2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="X2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="Y2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="AA2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AB2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AC2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="13" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Excel_sample/LeaveExport.xlsx
+++ b/Excel_sample/LeaveExport.xlsx
@@ -26,31 +26,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>員工編號</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>賣場編號</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>員工姓名</t>
     </r>
   </si>
@@ -305,6 +280,14 @@
   <si>
     <t>時薪</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣場編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,11 +521,11 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -887,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -908,11 +891,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -942,95 +925,95 @@
       <c r="AD1" s="5"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="J2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="AA2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AB2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1038,9 +1021,6 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
